--- a/data/hnvtxdata/CPAN/cpan_details_HARINAVI NODE 6_10.123.138.244__Data.xlsx
+++ b/data/hnvtxdata/CPAN/cpan_details_HARINAVI NODE 6_10.123.138.244__Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>s_no</t>
   </si>
@@ -220,7 +220,31 @@
     <t>2.4</t>
   </si>
   <si>
+    <t>GHOSPARA DARIR ROAD BTS</t>
+  </si>
+  <si>
+    <t>25M</t>
+  </si>
+  <si>
+    <t>1311/1811</t>
+  </si>
+  <si>
+    <t>destination: Jadavpur (29.193) p-5.3(2G &amp; 3G)</t>
+  </si>
+  <si>
     <t>8edd9352-83e3-49c2-bcc9-d127449106ae</t>
+  </si>
+  <si>
+    <t>GHOSPARA DARIR ROAD BTS MGMT</t>
+  </si>
+  <si>
+    <t>64K</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>7b9771cb-6162-4eab-ad20-74f04695a7b8</t>
   </si>
   <si>
     <t>2.5</t>
@@ -650,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -1140,6 +1164,24 @@
       <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O14" s="2" t="b">
         <v>1</v>
       </c>
@@ -1147,7 +1189,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1161,23 +1203,26 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="O15" s="2" t="b">
         <v>1</v>
       </c>
@@ -1185,7 +1230,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1199,22 +1244,22 @@
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O16" s="2" t="b">
         <v>1</v>
@@ -1223,7 +1268,45 @@
         <v>21</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
